--- a/Prep/migsaldo.xlsx
+++ b/Prep/migsaldo.xlsx
@@ -399,7 +399,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
